--- a/Assets/Other/_物品.xlsx
+++ b/Assets/Other/_物品.xlsx
@@ -4,24 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="7"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="流派" sheetId="9" r:id="rId1"/>
     <sheet name="卷轴" sheetId="11" r:id="rId2"/>
-    <sheet name="技能" sheetId="6" r:id="rId3"/>
-    <sheet name="消耗品" sheetId="1" r:id="rId4"/>
-    <sheet name="装备（躯体）" sheetId="3" r:id="rId5"/>
-    <sheet name="装备（魂魄）" sheetId="4" r:id="rId6"/>
-    <sheet name="姿态" sheetId="7" r:id="rId7"/>
-    <sheet name="状态" sheetId="8" r:id="rId8"/>
+    <sheet name="消耗品" sheetId="1" r:id="rId3"/>
+    <sheet name="状态" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
   <si>
     <t>1.技能流</t>
   </si>
@@ -86,6 +82,42 @@
     <t>和太玄金丹（白）效果相同，只是掉在地上被弄脏了</t>
   </si>
   <si>
+    <t>肥料（屎块）</t>
+  </si>
+  <si>
+    <t>对目标和使用者都造成中毒buff1层，只能对面前目标使用</t>
+  </si>
+  <si>
+    <t>并非实体肥料，而是从某些亡魂的记忆中幻化出的概念物品，能造成剧毒，据说可以克制穿着重甲的敌人</t>
+  </si>
+  <si>
+    <t>含草肥料（屎块）</t>
+  </si>
+  <si>
+    <t>可以远程使用</t>
+  </si>
+  <si>
+    <t>含有未消化完的长状草，草的强度无法支撑重量，但由于是执念幻化出的物品，所以可以用于投掷</t>
+  </si>
+  <si>
+    <t>腐肉</t>
+  </si>
+  <si>
+    <t>生命+1</t>
+  </si>
+  <si>
+    <t>场景物品，捡到直接使用  支撑肉体的必要之物</t>
+  </si>
+  <si>
+    <t>鲜肉</t>
+  </si>
+  <si>
+    <t>生命+5</t>
+  </si>
+  <si>
+    <t>场景物品，捡到直接使用  支撑肉体的必要之物，但若无心脏，则必然腐坏</t>
+  </si>
+  <si>
     <t>肾宝</t>
   </si>
   <si>
@@ -218,63 +250,6 @@
     <t>十回合内力量翻倍</t>
   </si>
   <si>
-    <t>技能是类似苦痛之环里魔法书一样的</t>
-  </si>
-  <si>
-    <t>有一定的冷却时间，然后作用会比较大</t>
-  </si>
-  <si>
-    <t>由于本游戏允许使用防御姿态硬抗</t>
-  </si>
-  <si>
-    <t>所以可以衍生出原地防御，靠技能输出的打法</t>
-  </si>
-  <si>
-    <t>可以考虑暂时照抄苦痛之环的魔法书</t>
-  </si>
-  <si>
-    <t>数值均为临时</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>效果</t>
-  </si>
-  <si>
-    <t>掌心雷</t>
-  </si>
-  <si>
-    <t>造成5+阳气攻击*2的伤害，如果自身是阴气状态，则受5点伤害</t>
-  </si>
-  <si>
-    <t>敕令-定身</t>
-  </si>
-  <si>
-    <t>定住敌人2回合</t>
-  </si>
-  <si>
-    <t>敕令-蚀目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使指定生物获得目盲buff  持续2回合 其攻击有50%几率失手， </t>
-  </si>
-  <si>
-    <t>敕令-请神</t>
-  </si>
-  <si>
-    <t>对自己造成1点伤害，获得请神buff（力量提升），持续3回合</t>
-  </si>
-  <si>
-    <t>敕令-拘魂</t>
-  </si>
-  <si>
-    <t>使指定阳气生物获得出窍buff 持续1回合 魂魄出窍，直接对其魂魄造成阴气伤害</t>
-  </si>
-  <si>
     <t>魂魄</t>
   </si>
   <si>
@@ -293,9 +268,6 @@
     <t>血肉系列</t>
   </si>
   <si>
-    <t>腐肉</t>
-  </si>
-  <si>
     <t>油脂</t>
   </si>
   <si>
@@ -366,63 +338,6 @@
   </si>
   <si>
     <t>复活一次，或装备</t>
-  </si>
-  <si>
-    <t>五脏</t>
-  </si>
-  <si>
-    <t>维的假腿</t>
-  </si>
-  <si>
-    <t>钥匙</t>
-  </si>
-  <si>
-    <t>木系物品：会进行成长，每个房间长进度条，如桃木剑，成长开花</t>
-  </si>
-  <si>
-    <t>默认：正常姿态</t>
-  </si>
-  <si>
-    <t>以下姿态：改变行为的，自带或一定条件后解锁或消耗物品进行</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>以下姿态：添加buff的，需要通过读书获取</t>
-  </si>
-  <si>
-    <t>其疾如风</t>
-  </si>
-  <si>
-    <t>速度增加，攻击力和防御力减少</t>
-  </si>
-  <si>
-    <t>其徐如林</t>
-  </si>
-  <si>
-    <t>速度降低，每回合能力提升，不会被惊吓</t>
-  </si>
-  <si>
-    <t>侵略如火</t>
-  </si>
-  <si>
-    <t>攻击上升，防御下降</t>
-  </si>
-  <si>
-    <t>不动如山</t>
-  </si>
-  <si>
-    <t>速度降低，防御增加</t>
-  </si>
-  <si>
-    <t>难知如阴</t>
-  </si>
-  <si>
-    <t>潜行</t>
-  </si>
-  <si>
-    <t>动如雷震</t>
   </si>
   <si>
     <t>沉默</t>
@@ -529,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -544,7 +459,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,34 +539,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -602,46 +547,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,6 +563,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -663,9 +578,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,19 +611,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,85 +761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,73 +779,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,6 +802,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -914,65 +883,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,10 +910,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,133 +922,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1564,17 +1479,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="80.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="61.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="99.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1620,70 +1535,66 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
         <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" ht="16" customHeight="1" spans="1:3">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1703,62 +1614,62 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1792,6 +1703,54 @@
       </c>
       <c r="B31" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1803,115 +1762,169 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="10.8888888888889" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>68</v>
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1919,314 +1932,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2236,142 +1945,142 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Other/_物品.xlsx
+++ b/Assets/Other/_物品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="流派" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
   <si>
     <t>1.技能流</t>
   </si>
@@ -27,6 +27,9 @@
     <t>通过原地防御，等待技能CD，然后打输出</t>
   </si>
   <si>
+    <t>需要特质：技能击杀立刻刷新，等等</t>
+  </si>
+  <si>
     <t>2.召唤/魅惑流</t>
   </si>
   <si>
@@ -52,6 +55,15 @@
   </si>
   <si>
     <t>频繁阴阳倒转，以取得优势</t>
+  </si>
+  <si>
+    <t>装备刷属性？比如 毁掉装备，保留属性，返还金币</t>
+  </si>
+  <si>
+    <t>参考：</t>
+  </si>
+  <si>
+    <t>苦痛之环  击退效果 打退敌人，防止反击，打退爆炸生物，让他们去炸别人</t>
   </si>
   <si>
     <t>一次性消耗品</t>
@@ -437,9 +449,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -452,7 +464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +478,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,6 +500,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -488,14 +516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,11 +537,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,9 +585,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,38 +601,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,181 +616,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,6 +807,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -809,6 +832,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,31 +878,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,30 +907,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -903,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -915,133 +927,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1400,10 +1412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1418,8 +1430,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1428,8 +1440,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1438,8 +1450,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1448,19 +1460,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1487,195 +1519,195 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1701,211 +1733,211 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1951,7 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1927,54 +1959,54 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1994,44 +2026,44 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2054,12 +2086,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2085,24 +2117,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
